--- a/_docs/db.xlsx
+++ b/_docs/db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebDevX64\MyWeb\film\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C170496-030D-43DD-849A-D37E9CB93463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BC35E8-12D0-405E-BB7B-0ED6DA0D8E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="3780" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="4215" windowWidth="21615" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,30 @@
   </si>
   <si>
     <t>file_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大为12个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,7 +746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -736,7 +760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -747,7 +771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -761,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>34</v>
       </c>
@@ -772,7 +796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -786,7 +810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -797,7 +821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -811,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -822,7 +846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>41</v>
       </c>
@@ -831,6 +855,42 @@
       </c>
       <c r="D28" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
